--- a/Projects/MARSRU_SAND/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU_SAND/Data/2019/MARS KPIs.xlsx
@@ -647,7 +647,7 @@
     <t xml:space="preserve">Укажите количество навесок с лакомтсвами кошек (WHS DUO/DREAMIES)</t>
   </si>
   <si>
-    <t xml:space="preserve">SURVEY NUMBER</t>
+    <t xml:space="preserve">SURVEY NUMERIC</t>
   </si>
   <si>
     <t xml:space="preserve">Укажите количество навесок с лакомтсвами собак (dentastix)</t>
@@ -1567,9 +1567,9 @@
   <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="J57" activeCellId="0" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
